--- a/data/unchecked/manual_collect/japan/JapanCaseStatistics20200217.xlsx
+++ b/data/unchecked/manual_collect/japan/JapanCaseStatistics20200217.xlsx
@@ -378,7 +378,6 @@
     <definedName name="遵义市">中国各省市区县数据!$C$2220:$C$2233</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -10724,7 +10723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10734,8 +10733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10916,7 +10915,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
